--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pgf-Flt1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pgf-Flt1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Flt1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.79353876547209</v>
+        <v>8.208963499999999</v>
       </c>
       <c r="H2">
-        <v>6.79353876547209</v>
+        <v>16.417927</v>
       </c>
       <c r="I2">
-        <v>0.3159070508054323</v>
+        <v>0.2898994609319864</v>
       </c>
       <c r="J2">
-        <v>0.3159070508054323</v>
+        <v>0.2177550321922232</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.640243767728</v>
+        <v>117.8215865</v>
       </c>
       <c r="N2">
-        <v>117.640243767728</v>
+        <v>235.643173</v>
       </c>
       <c r="O2">
-        <v>0.5413660146841967</v>
+        <v>0.532002292588051</v>
       </c>
       <c r="P2">
-        <v>0.5413660146841967</v>
+        <v>0.4324630118342522</v>
       </c>
       <c r="Q2">
-        <v>799.1935564156465</v>
+        <v>967.1931030905927</v>
       </c>
       <c r="R2">
-        <v>799.1935564156465</v>
+        <v>3868.772412362371</v>
       </c>
       <c r="S2">
-        <v>0.1710213411051749</v>
+        <v>0.1542271778358569</v>
       </c>
       <c r="T2">
-        <v>0.1710213411051749</v>
+        <v>0.09417099706391338</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.79353876547209</v>
+        <v>8.208963499999999</v>
       </c>
       <c r="H3">
-        <v>6.79353876547209</v>
+        <v>16.417927</v>
       </c>
       <c r="I3">
-        <v>0.3159070508054323</v>
+        <v>0.2898994609319864</v>
       </c>
       <c r="J3">
-        <v>0.3159070508054323</v>
+        <v>0.2177550321922232</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.196268492051739</v>
+        <v>0.235393</v>
       </c>
       <c r="N3">
-        <v>0.196268492051739</v>
+        <v>0.706179</v>
       </c>
       <c r="O3">
-        <v>0.0009032035972308573</v>
+        <v>0.00106287497375686</v>
       </c>
       <c r="P3">
-        <v>0.0009032035972308573</v>
+        <v>0.001296011649079689</v>
       </c>
       <c r="Q3">
-        <v>1.33335760919424</v>
+        <v>1.9323325451555</v>
       </c>
       <c r="R3">
-        <v>1.33335760919424</v>
+        <v>11.593995270933</v>
       </c>
       <c r="S3">
-        <v>0.0002853283846780576</v>
+        <v>0.0003081268819302129</v>
       </c>
       <c r="T3">
-        <v>0.0002853283846780576</v>
+        <v>0.0002822130583668439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.79353876547209</v>
+        <v>8.208963499999999</v>
       </c>
       <c r="H4">
-        <v>6.79353876547209</v>
+        <v>16.417927</v>
       </c>
       <c r="I4">
-        <v>0.3159070508054323</v>
+        <v>0.2898994609319864</v>
       </c>
       <c r="J4">
-        <v>0.3159070508054323</v>
+        <v>0.2177550321922232</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.342846141314817</v>
+        <v>0.5852593333333332</v>
       </c>
       <c r="N4">
-        <v>0.342846141314817</v>
+        <v>1.755778</v>
       </c>
       <c r="O4">
-        <v>0.001577736013025622</v>
+        <v>0.002642633802014605</v>
       </c>
       <c r="P4">
-        <v>0.001577736013025622</v>
+        <v>0.003222283218840886</v>
       </c>
       <c r="Q4">
-        <v>2.329138551614732</v>
+        <v>4.804372505367666</v>
       </c>
       <c r="R4">
-        <v>2.329138551614732</v>
+        <v>28.826235032206</v>
       </c>
       <c r="S4">
-        <v>0.0004984179308244452</v>
+        <v>0.0007660981146446796</v>
       </c>
       <c r="T4">
-        <v>0.0004984179308244452</v>
+        <v>0.0007016683860511575</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.79353876547209</v>
+        <v>8.208963499999999</v>
       </c>
       <c r="H5">
-        <v>6.79353876547209</v>
+        <v>16.417927</v>
       </c>
       <c r="I5">
-        <v>0.3159070508054323</v>
+        <v>0.2898994609319864</v>
       </c>
       <c r="J5">
-        <v>0.3159070508054323</v>
+        <v>0.2177550321922232</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.34075291887126</v>
+        <v>2.51651</v>
       </c>
       <c r="N5">
-        <v>2.34075291887126</v>
+        <v>7.549530000000001</v>
       </c>
       <c r="O5">
-        <v>0.01077185866387472</v>
+        <v>0.01136285063790714</v>
       </c>
       <c r="P5">
-        <v>0.01077185866387472</v>
+        <v>0.01385523900466678</v>
       </c>
       <c r="Q5">
-        <v>15.90199569474385</v>
+        <v>20.657938737385</v>
       </c>
       <c r="R5">
-        <v>15.90199569474385</v>
+        <v>123.94763242431</v>
       </c>
       <c r="S5">
-        <v>0.003402906102197607</v>
+        <v>0.003294084274579958</v>
       </c>
       <c r="T5">
-        <v>0.003402906102197607</v>
+        <v>0.003017048015492162</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.79353876547209</v>
+        <v>8.208963499999999</v>
       </c>
       <c r="H6">
-        <v>6.79353876547209</v>
+        <v>16.417927</v>
       </c>
       <c r="I6">
-        <v>0.3159070508054323</v>
+        <v>0.2898994609319864</v>
       </c>
       <c r="J6">
-        <v>0.3159070508054323</v>
+        <v>0.2177550321922232</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>95.10111512403751</v>
+        <v>98.61275733333333</v>
       </c>
       <c r="N6">
-        <v>95.10111512403751</v>
+        <v>295.838272</v>
       </c>
       <c r="O6">
-        <v>0.437643701150225</v>
+        <v>0.4452682614298567</v>
       </c>
       <c r="P6">
-        <v>0.437643701150225</v>
+        <v>0.5429357808085564</v>
       </c>
       <c r="Q6">
-        <v>646.0731122347729</v>
+        <v>809.5085255836906</v>
       </c>
       <c r="R6">
-        <v>646.0731122347729</v>
+        <v>4857.051153502144</v>
       </c>
       <c r="S6">
-        <v>0.1382547309339416</v>
+        <v>0.1290830289586382</v>
       </c>
       <c r="T6">
-        <v>0.1382547309339416</v>
+        <v>0.118226998428277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.79353876547209</v>
+        <v>8.208963499999999</v>
       </c>
       <c r="H7">
-        <v>6.79353876547209</v>
+        <v>16.417927</v>
       </c>
       <c r="I7">
-        <v>0.3159070508054323</v>
+        <v>0.2898994609319864</v>
       </c>
       <c r="J7">
-        <v>0.3159070508054323</v>
+        <v>0.2177550321922232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.68137581918618</v>
+        <v>1.696687</v>
       </c>
       <c r="N7">
-        <v>1.68137581918618</v>
+        <v>3.393374</v>
       </c>
       <c r="O7">
-        <v>0.007737485891447149</v>
+        <v>0.007661086568413697</v>
       </c>
       <c r="P7">
-        <v>0.007737485891447149</v>
+        <v>0.006227673484603961</v>
       </c>
       <c r="Q7">
-        <v>11.42249180696871</v>
+        <v>13.9280416539245</v>
       </c>
       <c r="R7">
-        <v>11.42249180696871</v>
+        <v>55.712166615698</v>
       </c>
       <c r="S7">
-        <v>0.00244432634861571</v>
+        <v>0.002220944866336412</v>
       </c>
       <c r="T7">
-        <v>0.00244432634861571</v>
+        <v>0.00135610724012259</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>13.3696763009823</v>
+        <v>0.484803</v>
       </c>
       <c r="H8">
-        <v>13.3696763009823</v>
+        <v>1.454409</v>
       </c>
       <c r="I8">
-        <v>0.6217047044660676</v>
+        <v>0.01712081292092599</v>
       </c>
       <c r="J8">
-        <v>0.6217047044660676</v>
+        <v>0.01929018679493819</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.640243767728</v>
+        <v>117.8215865</v>
       </c>
       <c r="N8">
-        <v>117.640243767728</v>
+        <v>235.643173</v>
       </c>
       <c r="O8">
-        <v>0.5413660146841967</v>
+        <v>0.532002292588051</v>
       </c>
       <c r="P8">
-        <v>0.5413660146841967</v>
+        <v>0.4324630118342522</v>
       </c>
       <c r="Q8">
-        <v>1572.811979143174</v>
+        <v>57.12025859995951</v>
       </c>
       <c r="R8">
-        <v>1572.811979143174</v>
+        <v>342.721551599757</v>
       </c>
       <c r="S8">
-        <v>0.3365697981672113</v>
+        <v>0.009108311724903751</v>
       </c>
       <c r="T8">
-        <v>0.3365697981672113</v>
+        <v>0.00834229228018429</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>13.3696763009823</v>
+        <v>0.484803</v>
       </c>
       <c r="H9">
-        <v>13.3696763009823</v>
+        <v>1.454409</v>
       </c>
       <c r="I9">
-        <v>0.6217047044660676</v>
+        <v>0.01712081292092599</v>
       </c>
       <c r="J9">
-        <v>0.6217047044660676</v>
+        <v>0.01929018679493819</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.196268492051739</v>
+        <v>0.235393</v>
       </c>
       <c r="N9">
-        <v>0.196268492051739</v>
+        <v>0.706179</v>
       </c>
       <c r="O9">
-        <v>0.0009032035972308573</v>
+        <v>0.00106287497375686</v>
       </c>
       <c r="P9">
-        <v>0.0009032035972308573</v>
+        <v>0.001296011649079689</v>
       </c>
       <c r="Q9">
-        <v>2.624046206813668</v>
+        <v>0.114119232579</v>
       </c>
       <c r="R9">
-        <v>2.624046206813668</v>
+        <v>1.027073093211</v>
       </c>
       <c r="S9">
-        <v>0.0005615259254890993</v>
+        <v>1.819728358402532E-05</v>
       </c>
       <c r="T9">
-        <v>0.0005615259254890993</v>
+        <v>2.500030679916308E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>13.3696763009823</v>
+        <v>0.484803</v>
       </c>
       <c r="H10">
-        <v>13.3696763009823</v>
+        <v>1.454409</v>
       </c>
       <c r="I10">
-        <v>0.6217047044660676</v>
+        <v>0.01712081292092599</v>
       </c>
       <c r="J10">
-        <v>0.6217047044660676</v>
+        <v>0.01929018679493819</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.342846141314817</v>
+        <v>0.5852593333333332</v>
       </c>
       <c r="N10">
-        <v>0.342846141314817</v>
+        <v>1.755778</v>
       </c>
       <c r="O10">
-        <v>0.001577736013025622</v>
+        <v>0.002642633802014605</v>
       </c>
       <c r="P10">
-        <v>0.001577736013025622</v>
+        <v>0.003222283218840886</v>
       </c>
       <c r="Q10">
-        <v>4.583741930419937</v>
+        <v>0.283735480578</v>
       </c>
       <c r="R10">
-        <v>4.583741930419937</v>
+        <v>2.553619325202</v>
       </c>
       <c r="S10">
-        <v>0.0009808859017035659</v>
+        <v>4.524403894280742E-05</v>
       </c>
       <c r="T10">
-        <v>0.0009808859017035659</v>
+        <v>6.215844519763537E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>13.3696763009823</v>
+        <v>0.484803</v>
       </c>
       <c r="H11">
-        <v>13.3696763009823</v>
+        <v>1.454409</v>
       </c>
       <c r="I11">
-        <v>0.6217047044660676</v>
+        <v>0.01712081292092599</v>
       </c>
       <c r="J11">
-        <v>0.6217047044660676</v>
+        <v>0.01929018679493819</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.34075291887126</v>
+        <v>2.51651</v>
       </c>
       <c r="N11">
-        <v>2.34075291887126</v>
+        <v>7.549530000000001</v>
       </c>
       <c r="O11">
-        <v>0.01077185866387472</v>
+        <v>0.01136285063790714</v>
       </c>
       <c r="P11">
-        <v>0.01077185866387472</v>
+        <v>0.01385523900466678</v>
       </c>
       <c r="Q11">
-        <v>31.29510882588823</v>
+        <v>1.22001159753</v>
       </c>
       <c r="R11">
-        <v>31.29510882588823</v>
+        <v>10.98010437777</v>
       </c>
       <c r="S11">
-        <v>0.006696915207174483</v>
+        <v>0.0001945412400200327</v>
       </c>
       <c r="T11">
-        <v>0.006696915207174483</v>
+        <v>0.0002672701484885358</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>13.3696763009823</v>
+        <v>0.484803</v>
       </c>
       <c r="H12">
-        <v>13.3696763009823</v>
+        <v>1.454409</v>
       </c>
       <c r="I12">
-        <v>0.6217047044660676</v>
+        <v>0.01712081292092599</v>
       </c>
       <c r="J12">
-        <v>0.6217047044660676</v>
+        <v>0.01929018679493819</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>95.10111512403751</v>
+        <v>98.61275733333333</v>
       </c>
       <c r="N12">
-        <v>95.10111512403751</v>
+        <v>295.838272</v>
       </c>
       <c r="O12">
-        <v>0.437643701150225</v>
+        <v>0.4452682614298567</v>
       </c>
       <c r="P12">
-        <v>0.437643701150225</v>
+        <v>0.5429357808085564</v>
       </c>
       <c r="Q12">
-        <v>1271.471125070834</v>
+        <v>47.807760593472</v>
       </c>
       <c r="R12">
-        <v>1271.471125070834</v>
+        <v>430.2698453412481</v>
       </c>
       <c r="S12">
-        <v>0.2720851478850366</v>
+        <v>0.007623354603566541</v>
       </c>
       <c r="T12">
-        <v>0.2720851478850366</v>
+        <v>0.01047333262945267</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>13.3696763009823</v>
+        <v>0.484803</v>
       </c>
       <c r="H13">
-        <v>13.3696763009823</v>
+        <v>1.454409</v>
       </c>
       <c r="I13">
-        <v>0.6217047044660676</v>
+        <v>0.01712081292092599</v>
       </c>
       <c r="J13">
-        <v>0.6217047044660676</v>
+        <v>0.01929018679493819</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.68137581918618</v>
+        <v>1.696687</v>
       </c>
       <c r="N13">
-        <v>1.68137581918618</v>
+        <v>3.393374</v>
       </c>
       <c r="O13">
-        <v>0.007737485891447149</v>
+        <v>0.007661086568413697</v>
       </c>
       <c r="P13">
-        <v>0.007737485891447149</v>
+        <v>0.006227673484603961</v>
       </c>
       <c r="Q13">
-        <v>22.47945044281817</v>
+        <v>0.8225589476610001</v>
       </c>
       <c r="R13">
-        <v>22.47945044281817</v>
+        <v>4.935353685966001</v>
       </c>
       <c r="S13">
-        <v>0.004810431379452518</v>
+        <v>0.0001311640299088298</v>
       </c>
       <c r="T13">
-        <v>0.004810431379452518</v>
+        <v>0.000120132984815894</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.34165083682753</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H14">
-        <v>1.34165083682753</v>
+        <v>0.165205</v>
       </c>
       <c r="I14">
-        <v>0.0623882447285001</v>
+        <v>0.001944737620986653</v>
       </c>
       <c r="J14">
-        <v>0.0623882447285001</v>
+        <v>0.00219115483296498</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.640243767728</v>
+        <v>117.8215865</v>
       </c>
       <c r="N14">
-        <v>117.640243767728</v>
+        <v>235.643173</v>
       </c>
       <c r="O14">
-        <v>0.5413660146841967</v>
+        <v>0.532002292588051</v>
       </c>
       <c r="P14">
-        <v>0.5413660146841967</v>
+        <v>0.4324630118342522</v>
       </c>
       <c r="Q14">
-        <v>157.8321314955669</v>
+        <v>6.488238399244166</v>
       </c>
       <c r="R14">
-        <v>157.8321314955669</v>
+        <v>38.929430395465</v>
       </c>
       <c r="S14">
-        <v>0.03377487541181044</v>
+        <v>0.001034604872847132</v>
       </c>
       <c r="T14">
-        <v>0.03377487541181044</v>
+        <v>0.0009475934184592131</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.34165083682753</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H15">
-        <v>1.34165083682753</v>
+        <v>0.165205</v>
       </c>
       <c r="I15">
-        <v>0.0623882447285001</v>
+        <v>0.001944737620986653</v>
       </c>
       <c r="J15">
-        <v>0.0623882447285001</v>
+        <v>0.00219115483296498</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.196268492051739</v>
+        <v>0.235393</v>
       </c>
       <c r="N15">
-        <v>0.196268492051739</v>
+        <v>0.706179</v>
       </c>
       <c r="O15">
-        <v>0.0009032035972308573</v>
+        <v>0.00106287497375686</v>
       </c>
       <c r="P15">
-        <v>0.0009032035972308573</v>
+        <v>0.001296011649079689</v>
       </c>
       <c r="Q15">
-        <v>0.263323786604093</v>
+        <v>0.01296270018833333</v>
       </c>
       <c r="R15">
-        <v>0.263323786604093</v>
+        <v>0.116664301695</v>
       </c>
       <c r="S15">
-        <v>5.634928706370036E-05</v>
+        <v>2.067012947870167E-06</v>
       </c>
       <c r="T15">
-        <v>5.634928706370036E-05</v>
+        <v>2.839762188459874E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.34165083682753</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H16">
-        <v>1.34165083682753</v>
+        <v>0.165205</v>
       </c>
       <c r="I16">
-        <v>0.0623882447285001</v>
+        <v>0.001944737620986653</v>
       </c>
       <c r="J16">
-        <v>0.0623882447285001</v>
+        <v>0.00219115483296498</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.342846141314817</v>
+        <v>0.5852593333333332</v>
       </c>
       <c r="N16">
-        <v>0.342846141314817</v>
+        <v>1.755778</v>
       </c>
       <c r="O16">
-        <v>0.001577736013025622</v>
+        <v>0.002642633802014605</v>
       </c>
       <c r="P16">
-        <v>0.001577736013025622</v>
+        <v>0.003222283218840886</v>
       </c>
       <c r="Q16">
-        <v>0.4599798123981138</v>
+        <v>0.03222925605444444</v>
       </c>
       <c r="R16">
-        <v>0.4599798123981138</v>
+        <v>0.29006330449</v>
       </c>
       <c r="S16">
-        <v>9.843218049761051E-05</v>
+        <v>5.139229373268797E-06</v>
       </c>
       <c r="T16">
-        <v>9.843218049761051E-05</v>
+        <v>7.060521448145159E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.34165083682753</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H17">
-        <v>1.34165083682753</v>
+        <v>0.165205</v>
       </c>
       <c r="I17">
-        <v>0.0623882447285001</v>
+        <v>0.001944737620986653</v>
       </c>
       <c r="J17">
-        <v>0.0623882447285001</v>
+        <v>0.00219115483296498</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.34075291887126</v>
+        <v>2.51651</v>
       </c>
       <c r="N17">
-        <v>2.34075291887126</v>
+        <v>7.549530000000001</v>
       </c>
       <c r="O17">
-        <v>0.01077185866387472</v>
+        <v>0.01136285063790714</v>
       </c>
       <c r="P17">
-        <v>0.01077185866387472</v>
+        <v>0.01385523900466678</v>
       </c>
       <c r="Q17">
-        <v>3.140473112410109</v>
+        <v>0.1385800115166667</v>
       </c>
       <c r="R17">
-        <v>3.140473112410109</v>
+        <v>1.24722010365</v>
       </c>
       <c r="S17">
-        <v>0.0006720373545026302</v>
+        <v>2.209776311719021E-05</v>
       </c>
       <c r="T17">
-        <v>0.0006720373545026302</v>
+        <v>3.035897390696052E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.34165083682753</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H18">
-        <v>1.34165083682753</v>
+        <v>0.165205</v>
       </c>
       <c r="I18">
-        <v>0.0623882447285001</v>
+        <v>0.001944737620986653</v>
       </c>
       <c r="J18">
-        <v>0.0623882447285001</v>
+        <v>0.00219115483296498</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>95.10111512403751</v>
+        <v>98.61275733333333</v>
       </c>
       <c r="N18">
-        <v>95.10111512403751</v>
+        <v>295.838272</v>
       </c>
       <c r="O18">
-        <v>0.437643701150225</v>
+        <v>0.4452682614298567</v>
       </c>
       <c r="P18">
-        <v>0.437643701150225</v>
+        <v>0.5429357808085564</v>
       </c>
       <c r="Q18">
-        <v>127.5924906893962</v>
+        <v>5.430440191751111</v>
       </c>
       <c r="R18">
-        <v>127.5924906893962</v>
+        <v>48.87396172576</v>
       </c>
       <c r="S18">
-        <v>0.0273038223312468</v>
+        <v>0.0008659299394339627</v>
       </c>
       <c r="T18">
-        <v>0.0273038223312468</v>
+        <v>0.001189656360108283</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05506833333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.165205</v>
+      </c>
+      <c r="I19">
+        <v>0.001944737620986653</v>
+      </c>
+      <c r="J19">
+        <v>0.00219115483296498</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.696687</v>
+      </c>
+      <c r="N19">
+        <v>3.393374</v>
+      </c>
+      <c r="O19">
+        <v>0.007661086568413697</v>
+      </c>
+      <c r="P19">
+        <v>0.006227673484603961</v>
+      </c>
+      <c r="Q19">
+        <v>0.09343372527833334</v>
+      </c>
+      <c r="R19">
+        <v>0.5606023516699999</v>
+      </c>
+      <c r="S19">
+        <v>1.489880326722966E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.364579685391783E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1931886666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.579566</v>
+      </c>
+      <c r="I20">
+        <v>0.006822455761295062</v>
+      </c>
+      <c r="J20">
+        <v>0.007686927404873833</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>117.8215865</v>
+      </c>
+      <c r="N20">
+        <v>235.643173</v>
+      </c>
+      <c r="O20">
+        <v>0.532002292588051</v>
+      </c>
+      <c r="P20">
+        <v>0.4324630118342522</v>
+      </c>
+      <c r="Q20">
+        <v>22.76179520048633</v>
+      </c>
+      <c r="R20">
+        <v>136.570771202918</v>
+      </c>
+      <c r="S20">
+        <v>0.00362956210608953</v>
+      </c>
+      <c r="T20">
+        <v>0.00332431177726299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1931886666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.579566</v>
+      </c>
+      <c r="I21">
+        <v>0.006822455761295062</v>
+      </c>
+      <c r="J21">
+        <v>0.007686927404873833</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.235393</v>
+      </c>
+      <c r="N21">
+        <v>0.706179</v>
+      </c>
+      <c r="O21">
+        <v>0.00106287497375686</v>
+      </c>
+      <c r="P21">
+        <v>0.001296011649079689</v>
+      </c>
+      <c r="Q21">
+        <v>0.04547525981266667</v>
+      </c>
+      <c r="R21">
+        <v>0.409277338314</v>
+      </c>
+      <c r="S21">
+        <v>7.251417488243827E-06</v>
+      </c>
+      <c r="T21">
+        <v>9.96234746234639E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1931886666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.579566</v>
+      </c>
+      <c r="I22">
+        <v>0.006822455761295062</v>
+      </c>
+      <c r="J22">
+        <v>0.007686927404873833</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.5852593333333332</v>
+      </c>
+      <c r="N22">
+        <v>1.755778</v>
+      </c>
+      <c r="O22">
+        <v>0.002642633802014605</v>
+      </c>
+      <c r="P22">
+        <v>0.003222283218840886</v>
+      </c>
+      <c r="Q22">
+        <v>0.1130654702608889</v>
+      </c>
+      <c r="R22">
+        <v>1.017589232348</v>
+      </c>
+      <c r="S22">
+        <v>1.802925220754762E-05</v>
+      </c>
+      <c r="T22">
+        <v>2.476945718117307E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1931886666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.579566</v>
+      </c>
+      <c r="I23">
+        <v>0.006822455761295062</v>
+      </c>
+      <c r="J23">
+        <v>0.007686927404873833</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.51651</v>
+      </c>
+      <c r="N23">
+        <v>7.549530000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.01136285063790714</v>
+      </c>
+      <c r="P23">
+        <v>0.01385523900466678</v>
+      </c>
+      <c r="Q23">
+        <v>0.4861612115533334</v>
+      </c>
+      <c r="R23">
+        <v>4.375450903980001</v>
+      </c>
+      <c r="S23">
+        <v>7.752254579932485E-05</v>
+      </c>
+      <c r="T23">
+        <v>0.0001065042164060499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1931886666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.579566</v>
+      </c>
+      <c r="I24">
+        <v>0.006822455761295062</v>
+      </c>
+      <c r="J24">
+        <v>0.007686927404873833</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>98.61275733333333</v>
+      </c>
+      <c r="N24">
+        <v>295.838272</v>
+      </c>
+      <c r="O24">
+        <v>0.4452682614298567</v>
+      </c>
+      <c r="P24">
+        <v>0.5429357808085564</v>
+      </c>
+      <c r="Q24">
+        <v>19.05086710555022</v>
+      </c>
+      <c r="R24">
+        <v>171.457803949952</v>
+      </c>
+      <c r="S24">
+        <v>0.003037823015513962</v>
+      </c>
+      <c r="T24">
+        <v>0.004173507932583865</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1931886666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.579566</v>
+      </c>
+      <c r="I25">
+        <v>0.006822455761295062</v>
+      </c>
+      <c r="J25">
+        <v>0.007686927404873833</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.696687</v>
+      </c>
+      <c r="N25">
+        <v>3.393374</v>
+      </c>
+      <c r="O25">
+        <v>0.007661086568413697</v>
+      </c>
+      <c r="P25">
+        <v>0.006227673484603961</v>
+      </c>
+      <c r="Q25">
+        <v>0.3277806992806667</v>
+      </c>
+      <c r="R25">
+        <v>1.966684195684</v>
+      </c>
+      <c r="S25">
+        <v>5.226742419645425E-05</v>
+      </c>
+      <c r="T25">
+        <v>4.78716739774083E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>18.03007966666667</v>
+      </c>
+      <c r="H26">
+        <v>54.090239</v>
+      </c>
+      <c r="I26">
+        <v>0.6367320765803667</v>
+      </c>
+      <c r="J26">
+        <v>0.7174122369243112</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>117.8215865</v>
+      </c>
+      <c r="N26">
+        <v>235.643173</v>
+      </c>
+      <c r="O26">
+        <v>0.532002292588051</v>
+      </c>
+      <c r="P26">
+        <v>0.4324630118342522</v>
+      </c>
+      <c r="Q26">
+        <v>2124.332591048058</v>
+      </c>
+      <c r="R26">
+        <v>12745.99554628835</v>
+      </c>
+      <c r="S26">
+        <v>0.3387429245051055</v>
+      </c>
+      <c r="T26">
+        <v>0.3102542567070358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>18.03007966666667</v>
+      </c>
+      <c r="H27">
+        <v>54.090239</v>
+      </c>
+      <c r="I27">
+        <v>0.6367320765803667</v>
+      </c>
+      <c r="J27">
+        <v>0.7174122369243112</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.235393</v>
+      </c>
+      <c r="N27">
+        <v>0.706179</v>
+      </c>
+      <c r="O27">
+        <v>0.00106287497375686</v>
+      </c>
+      <c r="P27">
+        <v>0.001296011649079689</v>
+      </c>
+      <c r="Q27">
+        <v>4.244154542975666</v>
+      </c>
+      <c r="R27">
+        <v>38.197390886781</v>
+      </c>
+      <c r="S27">
+        <v>0.0006767665891855082</v>
+      </c>
+      <c r="T27">
+        <v>0.0009297746162462251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.34165083682753</v>
-      </c>
-      <c r="H19">
-        <v>1.34165083682753</v>
-      </c>
-      <c r="I19">
-        <v>0.0623882447285001</v>
-      </c>
-      <c r="J19">
-        <v>0.0623882447285001</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.68137581918618</v>
-      </c>
-      <c r="N19">
-        <v>1.68137581918618</v>
-      </c>
-      <c r="O19">
-        <v>0.007737485891447149</v>
-      </c>
-      <c r="P19">
-        <v>0.007737485891447149</v>
-      </c>
-      <c r="Q19">
-        <v>2.255819274832712</v>
-      </c>
-      <c r="R19">
-        <v>2.255819274832712</v>
-      </c>
-      <c r="S19">
-        <v>0.0004827281633789215</v>
-      </c>
-      <c r="T19">
-        <v>0.0004827281633789215</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>18.03007966666667</v>
+      </c>
+      <c r="H28">
+        <v>54.090239</v>
+      </c>
+      <c r="I28">
+        <v>0.6367320765803667</v>
+      </c>
+      <c r="J28">
+        <v>0.7174122369243112</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.5852593333333332</v>
+      </c>
+      <c r="N28">
+        <v>1.755778</v>
+      </c>
+      <c r="O28">
+        <v>0.002642633802014605</v>
+      </c>
+      <c r="P28">
+        <v>0.003222283218840886</v>
+      </c>
+      <c r="Q28">
+        <v>10.55227240566022</v>
+      </c>
+      <c r="R28">
+        <v>94.97045165094198</v>
+      </c>
+      <c r="S28">
+        <v>0.001682649708398229</v>
+      </c>
+      <c r="T28">
+        <v>0.00231170541203231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>18.03007966666667</v>
+      </c>
+      <c r="H29">
+        <v>54.090239</v>
+      </c>
+      <c r="I29">
+        <v>0.6367320765803667</v>
+      </c>
+      <c r="J29">
+        <v>0.7174122369243112</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2.51651</v>
+      </c>
+      <c r="N29">
+        <v>7.549530000000001</v>
+      </c>
+      <c r="O29">
+        <v>0.01136285063790714</v>
+      </c>
+      <c r="P29">
+        <v>0.01385523900466678</v>
+      </c>
+      <c r="Q29">
+        <v>45.37287578196334</v>
+      </c>
+      <c r="R29">
+        <v>408.35588203767</v>
+      </c>
+      <c r="S29">
+        <v>0.007235091482547158</v>
+      </c>
+      <c r="T29">
+        <v>0.009939918007458965</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>18.03007966666667</v>
+      </c>
+      <c r="H30">
+        <v>54.090239</v>
+      </c>
+      <c r="I30">
+        <v>0.6367320765803667</v>
+      </c>
+      <c r="J30">
+        <v>0.7174122369243112</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>98.61275733333333</v>
+      </c>
+      <c r="N30">
+        <v>295.838272</v>
+      </c>
+      <c r="O30">
+        <v>0.4452682614298567</v>
+      </c>
+      <c r="P30">
+        <v>0.5429357808085564</v>
+      </c>
+      <c r="Q30">
+        <v>1777.995870869667</v>
+      </c>
+      <c r="R30">
+        <v>16001.96283782701</v>
+      </c>
+      <c r="S30">
+        <v>0.2835165847355622</v>
+      </c>
+      <c r="T30">
+        <v>0.389508773016114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>18.03007966666667</v>
+      </c>
+      <c r="H31">
+        <v>54.090239</v>
+      </c>
+      <c r="I31">
+        <v>0.6367320765803667</v>
+      </c>
+      <c r="J31">
+        <v>0.7174122369243112</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.696687</v>
+      </c>
+      <c r="N31">
+        <v>3.393374</v>
+      </c>
+      <c r="O31">
+        <v>0.007661086568413697</v>
+      </c>
+      <c r="P31">
+        <v>0.006227673484603961</v>
+      </c>
+      <c r="Q31">
+        <v>30.59140177939767</v>
+      </c>
+      <c r="R31">
+        <v>183.548410676386</v>
+      </c>
+      <c r="S31">
+        <v>0.004878059559568009</v>
+      </c>
+      <c r="T31">
+        <v>0.004467809165423948</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.3444845</v>
+      </c>
+      <c r="H32">
+        <v>2.688969</v>
+      </c>
+      <c r="I32">
+        <v>0.04748045618443927</v>
+      </c>
+      <c r="J32">
+        <v>0.03566446185068859</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>117.8215865</v>
+      </c>
+      <c r="N32">
+        <v>235.643173</v>
+      </c>
+      <c r="O32">
+        <v>0.532002292588051</v>
+      </c>
+      <c r="P32">
+        <v>0.4324630118342522</v>
+      </c>
+      <c r="Q32">
+        <v>158.4092968146593</v>
+      </c>
+      <c r="R32">
+        <v>633.637187258637</v>
+      </c>
+      <c r="S32">
+        <v>0.0252597115432482</v>
+      </c>
+      <c r="T32">
+        <v>0.01542356058739658</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.3444845</v>
+      </c>
+      <c r="H33">
+        <v>2.688969</v>
+      </c>
+      <c r="I33">
+        <v>0.04748045618443927</v>
+      </c>
+      <c r="J33">
+        <v>0.03566446185068859</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.235393</v>
+      </c>
+      <c r="N33">
+        <v>0.706179</v>
+      </c>
+      <c r="O33">
+        <v>0.00106287497375686</v>
+      </c>
+      <c r="P33">
+        <v>0.001296011649079689</v>
+      </c>
+      <c r="Q33">
+        <v>0.3164822399085</v>
+      </c>
+      <c r="R33">
+        <v>1.898893439451</v>
+      </c>
+      <c r="S33">
+        <v>5.046578862099963E-05</v>
+      </c>
+      <c r="T33">
+        <v>4.622155801665058E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.3444845</v>
+      </c>
+      <c r="H34">
+        <v>2.688969</v>
+      </c>
+      <c r="I34">
+        <v>0.04748045618443927</v>
+      </c>
+      <c r="J34">
+        <v>0.03566446185068859</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.5852593333333332</v>
+      </c>
+      <c r="N34">
+        <v>1.755778</v>
+      </c>
+      <c r="O34">
+        <v>0.002642633802014605</v>
+      </c>
+      <c r="P34">
+        <v>0.003222283218840886</v>
+      </c>
+      <c r="Q34">
+        <v>0.7868721021469999</v>
+      </c>
+      <c r="R34">
+        <v>4.721232612882</v>
+      </c>
+      <c r="S34">
+        <v>0.0001254734584480726</v>
+      </c>
+      <c r="T34">
+        <v>0.0001149209969304648</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.3444845</v>
+      </c>
+      <c r="H35">
+        <v>2.688969</v>
+      </c>
+      <c r="I35">
+        <v>0.04748045618443927</v>
+      </c>
+      <c r="J35">
+        <v>0.03566446185068859</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2.51651</v>
+      </c>
+      <c r="N35">
+        <v>7.549530000000001</v>
+      </c>
+      <c r="O35">
+        <v>0.01136285063790714</v>
+      </c>
+      <c r="P35">
+        <v>0.01385523900466678</v>
+      </c>
+      <c r="Q35">
+        <v>3.383408689095</v>
+      </c>
+      <c r="R35">
+        <v>20.30045213457</v>
+      </c>
+      <c r="S35">
+        <v>0.0005395133318434779</v>
+      </c>
+      <c r="T35">
+        <v>0.000494139642914111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.3444845</v>
+      </c>
+      <c r="H36">
+        <v>2.688969</v>
+      </c>
+      <c r="I36">
+        <v>0.04748045618443927</v>
+      </c>
+      <c r="J36">
+        <v>0.03566446185068859</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>98.61275733333333</v>
+      </c>
+      <c r="N36">
+        <v>295.838272</v>
+      </c>
+      <c r="O36">
+        <v>0.4452682614298567</v>
+      </c>
+      <c r="P36">
+        <v>0.5429357808085564</v>
+      </c>
+      <c r="Q36">
+        <v>132.583323736928</v>
+      </c>
+      <c r="R36">
+        <v>795.4999424215681</v>
+      </c>
+      <c r="S36">
+        <v>0.02114154017714176</v>
+      </c>
+      <c r="T36">
+        <v>0.01936351244202058</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.3444845</v>
+      </c>
+      <c r="H37">
+        <v>2.688969</v>
+      </c>
+      <c r="I37">
+        <v>0.04748045618443927</v>
+      </c>
+      <c r="J37">
+        <v>0.03566446185068859</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.696687</v>
+      </c>
+      <c r="N37">
+        <v>3.393374</v>
+      </c>
+      <c r="O37">
+        <v>0.007661086568413697</v>
+      </c>
+      <c r="P37">
+        <v>0.006227673484603961</v>
+      </c>
+      <c r="Q37">
+        <v>2.2811693728515</v>
+      </c>
+      <c r="R37">
+        <v>9.124677491406</v>
+      </c>
+      <c r="S37">
+        <v>0.0003637518851367628</v>
+      </c>
+      <c r="T37">
+        <v>0.0002221066234102028</v>
       </c>
     </row>
   </sheetData>
